--- a/www.eia.gov/electricity/monthly/xls/table_4_11_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_4_11_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="75">
   <si>
-    <t>Table 4.11.B. Average Cost of Petroleum Liquids Delivered for Electricity Generation by State, (Year-to-Date) October 2016 and 2015</t>
+    <t>Table 4.11.B. Average Cost of Petroleum Liquids Delivered for Electricity Generation by State, (Year-to-Date) November 2016 and 2015</t>
   </si>
   <si>
     <t>(Dollars per MMBtu)</t>
@@ -46,10 +46,10 @@
     <t/>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -1295,8 +1295,8 @@
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10">
-        <v>8.59</v>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>11</v>
@@ -1305,13 +1305,13 @@
         <v>11</v>
       </c>
       <c r="E5" s="10">
-        <v>9.6</v>
+        <v>9.64</v>
       </c>
       <c r="F5" s="10">
-        <v>11.46</v>
-      </c>
-      <c r="G5" s="10">
-        <v>8.33</v>
+        <v>11.49</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>11</v>
@@ -1322,7 +1322,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="13">
-        <v>9.48</v>
+        <v>10.59</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>11</v>
@@ -1337,7 +1337,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="13">
-        <v>9.48</v>
+        <v>10.59</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>11</v>
@@ -1377,13 +1377,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="13">
-        <v>12.47</v>
+        <v>11.85</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="13">
-        <v>9.59</v>
+        <v>9.61</v>
       </c>
       <c r="F8" s="13">
         <v>22.01</v>
@@ -1392,7 +1392,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="13">
-        <v>12.42</v>
+        <v>11.81</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1400,7 +1400,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="13">
-        <v>9.68</v>
+        <v>9.85</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>11</v>
@@ -1409,10 +1409,10 @@
         <v>11</v>
       </c>
       <c r="E9" s="13">
-        <v>9.68</v>
+        <v>9.85</v>
       </c>
       <c r="F9" s="13">
-        <v>10.51</v>
+        <v>10.54</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>13</v>
@@ -1478,25 +1478,25 @@
         <v>19</v>
       </c>
       <c r="B12" s="10">
-        <v>10.46</v>
+        <v>10.02</v>
       </c>
       <c r="C12" s="10">
-        <v>12.2</v>
+        <v>11.44</v>
       </c>
       <c r="D12" s="11">
-        <v>-0.14000000000000001</v>
+        <v>-0.12</v>
       </c>
       <c r="E12" s="10">
-        <v>8.41</v>
+        <v>7.8</v>
       </c>
       <c r="F12" s="10">
-        <v>9.9600000000000009</v>
+        <v>8.98</v>
       </c>
       <c r="G12" s="10">
         <v>11.04</v>
       </c>
       <c r="H12" s="10">
-        <v>13.35</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1504,13 +1504,13 @@
         <v>20</v>
       </c>
       <c r="B13" s="13">
-        <v>9.75</v>
+        <v>9.83</v>
       </c>
       <c r="C13" s="13">
-        <v>14.22</v>
+        <v>14.01</v>
       </c>
       <c r="D13" s="14">
-        <v>-0.31</v>
+        <v>-0.3</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>13</v>
@@ -1519,10 +1519,10 @@
         <v>13</v>
       </c>
       <c r="G13" s="13">
-        <v>9.75</v>
+        <v>9.83</v>
       </c>
       <c r="H13" s="13">
-        <v>14.22</v>
+        <v>14.01</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1530,25 +1530,25 @@
         <v>21</v>
       </c>
       <c r="B14" s="13">
-        <v>10.61</v>
+        <v>9.81</v>
       </c>
       <c r="C14" s="13">
-        <v>11.8</v>
+        <v>10.93</v>
       </c>
       <c r="D14" s="14">
         <v>-0.1</v>
       </c>
       <c r="E14" s="13">
-        <v>8.41</v>
+        <v>7.8</v>
       </c>
       <c r="F14" s="13">
-        <v>9.9600000000000009</v>
+        <v>8.98</v>
       </c>
       <c r="G14" s="13">
-        <v>11.92</v>
+        <v>11.89</v>
       </c>
       <c r="H14" s="13">
-        <v>13.21</v>
+        <v>12.94</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1556,13 +1556,13 @@
         <v>22</v>
       </c>
       <c r="B15" s="13">
-        <v>10.27</v>
+        <v>10.39</v>
       </c>
       <c r="C15" s="13">
-        <v>13.52</v>
+        <v>13.37</v>
       </c>
       <c r="D15" s="14">
-        <v>-0.24</v>
+        <v>-0.22</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>13</v>
@@ -1571,10 +1571,10 @@
         <v>13</v>
       </c>
       <c r="G15" s="13">
-        <v>10.27</v>
+        <v>10.39</v>
       </c>
       <c r="H15" s="13">
-        <v>13.52</v>
+        <v>13.37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1585,22 +1585,22 @@
         <v>11</v>
       </c>
       <c r="C16" s="10">
-        <v>13.99</v>
+        <v>13.87</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="10">
-        <v>10.56</v>
+        <v>10.64</v>
       </c>
       <c r="F16" s="10">
-        <v>14.03</v>
+        <v>13.91</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="10">
-        <v>13.9</v>
+        <v>13.78</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1608,7 +1608,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="13">
-        <v>10.68</v>
+        <v>10.74</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>11</v>
@@ -1620,10 +1620,10 @@
         <v>11.03</v>
       </c>
       <c r="F17" s="13">
-        <v>14.72</v>
+        <v>14.2</v>
       </c>
       <c r="G17" s="13">
-        <v>10.67</v>
+        <v>10.74</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>11</v>
@@ -1634,19 +1634,19 @@
         <v>25</v>
       </c>
       <c r="B18" s="13">
-        <v>10.36</v>
+        <v>10.43</v>
       </c>
       <c r="C18" s="13">
-        <v>14.12</v>
+        <v>14.02</v>
       </c>
       <c r="D18" s="14">
-        <v>-0.27</v>
+        <v>-0.26</v>
       </c>
       <c r="E18" s="13">
-        <v>10.36</v>
+        <v>10.43</v>
       </c>
       <c r="F18" s="13">
-        <v>14.12</v>
+        <v>14.02</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>13</v>
@@ -1660,19 +1660,19 @@
         <v>26</v>
       </c>
       <c r="B19" s="13">
-        <v>10.38</v>
+        <v>10.44</v>
       </c>
       <c r="C19" s="13">
-        <v>13.33</v>
+        <v>13.18</v>
       </c>
       <c r="D19" s="14">
-        <v>-0.22</v>
+        <v>-0.21</v>
       </c>
       <c r="E19" s="13">
-        <v>10.38</v>
+        <v>10.44</v>
       </c>
       <c r="F19" s="13">
-        <v>13.33</v>
+        <v>13.18</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>13</v>
@@ -1689,22 +1689,22 @@
         <v>11</v>
       </c>
       <c r="C20" s="13">
-        <v>13.87</v>
+        <v>13.8</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="13">
-        <v>10.79</v>
+        <v>10.9</v>
       </c>
       <c r="F20" s="13">
-        <v>14.02</v>
+        <v>13.95</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="13">
-        <v>13.77</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1721,10 +1721,10 @@
         <v>11</v>
       </c>
       <c r="E21" s="13">
-        <v>11.46</v>
+        <v>11.39</v>
       </c>
       <c r="F21" s="13">
-        <v>15.57</v>
+        <v>15.1</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>11</v>
@@ -1741,16 +1741,16 @@
         <v>11</v>
       </c>
       <c r="C22" s="10">
-        <v>12.93</v>
+        <v>12.82</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="10">
-        <v>10.43</v>
+        <v>10.49</v>
       </c>
       <c r="F22" s="10">
-        <v>12.93</v>
+        <v>12.82</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>11</v>
@@ -1764,19 +1764,19 @@
         <v>30</v>
       </c>
       <c r="B23" s="13">
-        <v>11.07</v>
+        <v>11.08</v>
       </c>
       <c r="C23" s="13">
-        <v>13.09</v>
+        <v>13.02</v>
       </c>
       <c r="D23" s="14">
         <v>-0.15</v>
       </c>
       <c r="E23" s="13">
-        <v>11.07</v>
+        <v>11.08</v>
       </c>
       <c r="F23" s="13">
-        <v>13.09</v>
+        <v>13.02</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>13</v>
@@ -1790,19 +1790,19 @@
         <v>31</v>
       </c>
       <c r="B24" s="13">
-        <v>10.14</v>
+        <v>10.3</v>
       </c>
       <c r="C24" s="13">
-        <v>12.95</v>
+        <v>12.67</v>
       </c>
       <c r="D24" s="14">
-        <v>-0.22</v>
+        <v>-0.19</v>
       </c>
       <c r="E24" s="13">
-        <v>10.14</v>
+        <v>10.3</v>
       </c>
       <c r="F24" s="13">
-        <v>12.95</v>
+        <v>12.67</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>13</v>
@@ -1819,16 +1819,16 @@
         <v>11</v>
       </c>
       <c r="C25" s="13">
-        <v>13.81</v>
+        <v>13.52</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="13">
-        <v>11.26</v>
+        <v>11.29</v>
       </c>
       <c r="F25" s="13">
-        <v>13.81</v>
+        <v>13.52</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>11</v>
@@ -1842,19 +1842,19 @@
         <v>33</v>
       </c>
       <c r="B26" s="13">
-        <v>10.43</v>
+        <v>10.57</v>
       </c>
       <c r="C26" s="13">
-        <v>13.34</v>
+        <v>13.19</v>
       </c>
       <c r="D26" s="14">
-        <v>-0.22</v>
+        <v>-0.2</v>
       </c>
       <c r="E26" s="13">
-        <v>10.43</v>
+        <v>10.57</v>
       </c>
       <c r="F26" s="13">
-        <v>13.34</v>
+        <v>13.19</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>13</v>
@@ -1871,16 +1871,16 @@
         <v>11.03</v>
       </c>
       <c r="C27" s="13">
-        <v>22.03</v>
+        <v>20.52</v>
       </c>
       <c r="D27" s="14">
-        <v>-0.5</v>
+        <v>-0.46</v>
       </c>
       <c r="E27" s="13">
         <v>11.03</v>
       </c>
       <c r="F27" s="13">
-        <v>22.03</v>
+        <v>20.52</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>13</v>
@@ -1894,19 +1894,19 @@
         <v>35</v>
       </c>
       <c r="B28" s="13">
-        <v>9.16</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="C28" s="13">
-        <v>13.06</v>
+        <v>12.83</v>
       </c>
       <c r="D28" s="14">
-        <v>-0.3</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="E28" s="13">
-        <v>9.16</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F28" s="13">
-        <v>13.06</v>
+        <v>12.83</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>13</v>
@@ -1920,16 +1920,16 @@
         <v>36</v>
       </c>
       <c r="B29" s="13">
-        <v>7.54</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="C29" s="13">
         <v>9.48</v>
       </c>
       <c r="D29" s="14">
-        <v>-0.2</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="E29" s="13">
-        <v>7.54</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="F29" s="13">
         <v>9.48</v>
@@ -1946,25 +1946,25 @@
         <v>37</v>
       </c>
       <c r="B30" s="10">
-        <v>9.93</v>
+        <v>9.89</v>
       </c>
       <c r="C30" s="10">
-        <v>12.96</v>
+        <v>12.89</v>
       </c>
       <c r="D30" s="11">
         <v>-0.23</v>
       </c>
       <c r="E30" s="10">
-        <v>9.85</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="F30" s="10">
-        <v>12.72</v>
+        <v>12.65</v>
       </c>
       <c r="G30" s="10">
-        <v>10.3</v>
+        <v>10.39</v>
       </c>
       <c r="H30" s="10">
-        <v>13.84</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2036,7 +2036,7 @@
         <v>11.62</v>
       </c>
       <c r="F33" s="13">
-        <v>14.56</v>
+        <v>14.5</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>11</v>
@@ -2050,22 +2050,22 @@
         <v>41</v>
       </c>
       <c r="B34" s="13">
-        <v>9.08</v>
+        <v>9.25</v>
       </c>
       <c r="C34" s="13">
-        <v>16.82</v>
+        <v>16.27</v>
       </c>
       <c r="D34" s="14">
-        <v>-0.46</v>
+        <v>-0.43</v>
       </c>
       <c r="E34" s="13">
-        <v>9.3800000000000008</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="F34" s="13">
-        <v>18.29</v>
+        <v>17.28</v>
       </c>
       <c r="G34" s="13">
-        <v>7.68</v>
+        <v>7.83</v>
       </c>
       <c r="H34" s="13">
         <v>14.11</v>
@@ -2076,13 +2076,13 @@
         <v>42</v>
       </c>
       <c r="B35" s="13">
-        <v>9.5</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="C35" s="13">
         <v>10.79</v>
       </c>
       <c r="D35" s="14">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>13</v>
@@ -2091,7 +2091,7 @@
         <v>13</v>
       </c>
       <c r="G35" s="13">
-        <v>9.5</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="H35" s="13">
         <v>10.79</v>
@@ -2111,10 +2111,10 @@
         <v>11</v>
       </c>
       <c r="E36" s="13">
-        <v>10.029999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="F36" s="13">
-        <v>13.82</v>
+        <v>13.35</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>11</v>
@@ -2128,19 +2128,19 @@
         <v>44</v>
       </c>
       <c r="B37" s="13">
-        <v>10.86</v>
+        <v>10.99</v>
       </c>
       <c r="C37" s="13">
-        <v>15.11</v>
+        <v>15.02</v>
       </c>
       <c r="D37" s="14">
-        <v>-0.28000000000000003</v>
+        <v>-0.27</v>
       </c>
       <c r="E37" s="13">
-        <v>10.86</v>
+        <v>10.99</v>
       </c>
       <c r="F37" s="13">
-        <v>15.11</v>
+        <v>15.02</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>13</v>
@@ -2157,13 +2157,13 @@
         <v>11</v>
       </c>
       <c r="C38" s="13">
-        <v>11.92</v>
+        <v>11.93</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="13">
-        <v>8.02</v>
+        <v>7.97</v>
       </c>
       <c r="F38" s="13">
         <v>10.74</v>
@@ -2172,15 +2172,15 @@
         <v>11</v>
       </c>
       <c r="H38" s="13">
-        <v>18.25</v>
+        <v>17.62</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="13">
-        <v>11.04</v>
+      <c r="B39" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>11</v>
@@ -2189,13 +2189,13 @@
         <v>11</v>
       </c>
       <c r="E39" s="13">
-        <v>11.04</v>
+        <v>11.22</v>
       </c>
       <c r="F39" s="13">
-        <v>14.14</v>
+        <v>14.03</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>11</v>
@@ -2215,10 +2215,10 @@
         <v>11</v>
       </c>
       <c r="E40" s="10">
-        <v>10.130000000000001</v>
+        <v>10.27</v>
       </c>
       <c r="F40" s="10">
-        <v>13.01</v>
+        <v>12.92</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>11</v>
@@ -2241,10 +2241,10 @@
         <v>11</v>
       </c>
       <c r="E41" s="13">
-        <v>9.7100000000000009</v>
+        <v>9.81</v>
       </c>
       <c r="F41" s="13">
-        <v>13.35</v>
+        <v>13.29</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>11</v>
@@ -2258,19 +2258,19 @@
         <v>49</v>
       </c>
       <c r="B42" s="13">
-        <v>10.36</v>
+        <v>10.47</v>
       </c>
       <c r="C42" s="13">
-        <v>13.87</v>
+        <v>13.67</v>
       </c>
       <c r="D42" s="14">
-        <v>-0.25</v>
+        <v>-0.23</v>
       </c>
       <c r="E42" s="13">
-        <v>10.36</v>
+        <v>10.47</v>
       </c>
       <c r="F42" s="13">
-        <v>13.87</v>
+        <v>13.67</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         <v>50</v>
       </c>
       <c r="B43" s="13">
-        <v>9.19</v>
+        <v>9.31</v>
       </c>
       <c r="C43" s="13">
         <v>10.49</v>
       </c>
       <c r="D43" s="14">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="E43" s="13">
-        <v>9.19</v>
+        <v>9.31</v>
       </c>
       <c r="F43" s="13">
         <v>10.49</v>
@@ -2310,19 +2310,19 @@
         <v>51</v>
       </c>
       <c r="B44" s="13">
-        <v>10.16</v>
+        <v>10.32</v>
       </c>
       <c r="C44" s="13">
-        <v>12.75</v>
+        <v>12.66</v>
       </c>
       <c r="D44" s="14">
-        <v>-0.2</v>
+        <v>-0.18</v>
       </c>
       <c r="E44" s="13">
-        <v>10.16</v>
+        <v>10.32</v>
       </c>
       <c r="F44" s="13">
-        <v>12.75</v>
+        <v>12.66</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>13</v>
@@ -2336,25 +2336,25 @@
         <v>52</v>
       </c>
       <c r="B45" s="10">
-        <v>10.49</v>
+        <v>10.51</v>
       </c>
       <c r="C45" s="10">
-        <v>13.28</v>
+        <v>13.21</v>
       </c>
       <c r="D45" s="11">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="E45" s="10">
-        <v>10.3</v>
+        <v>10.33</v>
       </c>
       <c r="F45" s="10">
-        <v>13.21</v>
+        <v>13.09</v>
       </c>
       <c r="G45" s="10">
-        <v>11.02</v>
+        <v>11.04</v>
       </c>
       <c r="H45" s="10">
-        <v>13.45</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2371,10 +2371,10 @@
         <v>11</v>
       </c>
       <c r="E46" s="13">
-        <v>9.86</v>
+        <v>9.99</v>
       </c>
       <c r="F46" s="13">
-        <v>13.59</v>
+        <v>13.26</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>11</v>
@@ -2449,10 +2449,10 @@
         <v>11</v>
       </c>
       <c r="E49" s="13">
-        <v>10.29</v>
+        <v>10.31</v>
       </c>
       <c r="F49" s="13">
-        <v>13.49</v>
+        <v>13.37</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>11</v>
@@ -2469,22 +2469,22 @@
         <v>11</v>
       </c>
       <c r="C50" s="10">
-        <v>15.01</v>
+        <v>14.89</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="10">
-        <v>11.08</v>
+        <v>11.21</v>
       </c>
       <c r="F50" s="10">
-        <v>15.03</v>
+        <v>14.92</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H50" s="10">
-        <v>14.73</v>
+        <v>14.56</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2492,19 +2492,19 @@
         <v>58</v>
       </c>
       <c r="B51" s="13">
-        <v>10.92</v>
+        <v>11.19</v>
       </c>
       <c r="C51" s="13">
-        <v>13.98</v>
+        <v>13.95</v>
       </c>
       <c r="D51" s="14">
-        <v>-0.22</v>
+        <v>-0.2</v>
       </c>
       <c r="E51" s="13">
-        <v>10.92</v>
+        <v>11.19</v>
       </c>
       <c r="F51" s="13">
-        <v>13.98</v>
+        <v>13.95</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>13</v>
@@ -2608,7 +2608,7 @@
         <v>11.79</v>
       </c>
       <c r="F55" s="13">
-        <v>17.21</v>
+        <v>16.98</v>
       </c>
       <c r="G55" s="13" t="s">
         <v>11</v>
@@ -2622,19 +2622,19 @@
         <v>63</v>
       </c>
       <c r="B56" s="13">
-        <v>10.82</v>
+        <v>10.96</v>
       </c>
       <c r="C56" s="13">
-        <v>15.75</v>
+        <v>15.74</v>
       </c>
       <c r="D56" s="14">
-        <v>-0.31</v>
+        <v>-0.3</v>
       </c>
       <c r="E56" s="13">
-        <v>10.82</v>
+        <v>10.96</v>
       </c>
       <c r="F56" s="13">
-        <v>15.75</v>
+        <v>15.74</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>13</v>
@@ -2648,7 +2648,7 @@
         <v>64</v>
       </c>
       <c r="B57" s="13">
-        <v>11.65</v>
+        <v>11.64</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>11</v>
@@ -2657,10 +2657,10 @@
         <v>11</v>
       </c>
       <c r="E57" s="13">
-        <v>11.65</v>
+        <v>11.64</v>
       </c>
       <c r="F57" s="13">
-        <v>14.9</v>
+        <v>14.84</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>13</v>
@@ -2674,19 +2674,19 @@
         <v>65</v>
       </c>
       <c r="B58" s="13">
-        <v>11.35</v>
+        <v>11.4</v>
       </c>
       <c r="C58" s="13">
-        <v>14.73</v>
+        <v>14.44</v>
       </c>
       <c r="D58" s="14">
-        <v>-0.23</v>
+        <v>-0.21</v>
       </c>
       <c r="E58" s="13">
-        <v>11.35</v>
+        <v>11.4</v>
       </c>
       <c r="F58" s="13">
-        <v>14.73</v>
+        <v>14.44</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>13</v>
@@ -2708,11 +2708,11 @@
       <c r="D59" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>13</v>
+      <c r="E59" s="10">
+        <v>12.29</v>
       </c>
       <c r="F59" s="10">
-        <v>16.489999999999998</v>
+        <v>11.66</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>11</v>
@@ -2755,7 +2755,7 @@
         <v>13</v>
       </c>
       <c r="C61" s="13">
-        <v>16.489999999999998</v>
+        <v>11.72</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>13</v>
@@ -2764,7 +2764,7 @@
         <v>13</v>
       </c>
       <c r="F61" s="13">
-        <v>16.489999999999998</v>
+        <v>11.72</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>13</v>
@@ -2786,11 +2786,11 @@
       <c r="D62" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>13</v>
+      <c r="E62" s="13">
+        <v>12.29</v>
+      </c>
+      <c r="F62" s="13">
+        <v>11.29</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>11</v>
@@ -2813,10 +2813,10 @@
         <v>11</v>
       </c>
       <c r="E63" s="10">
-        <v>8.2100000000000009</v>
+        <v>8.39</v>
       </c>
       <c r="F63" s="10">
-        <v>11.33</v>
+        <v>11.11</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>11</v>
@@ -2830,19 +2830,19 @@
         <v>71</v>
       </c>
       <c r="B64" s="13">
-        <v>13.95</v>
+        <v>14.31</v>
       </c>
       <c r="C64" s="13">
-        <v>17.63</v>
+        <v>17.45</v>
       </c>
       <c r="D64" s="14">
-        <v>-0.21</v>
+        <v>-0.18</v>
       </c>
       <c r="E64" s="13">
-        <v>13.95</v>
+        <v>14.31</v>
       </c>
       <c r="F64" s="13">
-        <v>17.63</v>
+        <v>17.45</v>
       </c>
       <c r="G64" s="13" t="s">
         <v>13</v>
@@ -2865,10 +2865,10 @@
         <v>11</v>
       </c>
       <c r="E65" s="13">
-        <v>8.2100000000000009</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="F65" s="13">
-        <v>11.32</v>
+        <v>11.1</v>
       </c>
       <c r="G65" s="13" t="s">
         <v>11</v>
@@ -2882,25 +2882,25 @@
         <v>73</v>
       </c>
       <c r="B66" s="10">
-        <v>9.14</v>
+        <v>9.24</v>
       </c>
       <c r="C66" s="10">
-        <v>11.97</v>
+        <v>11.65</v>
       </c>
       <c r="D66" s="11">
-        <v>-0.24</v>
+        <v>-0.21</v>
       </c>
       <c r="E66" s="10">
-        <v>8.94</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="F66" s="10">
-        <v>11.89</v>
+        <v>11.57</v>
       </c>
       <c r="G66" s="10">
-        <v>9.73</v>
+        <v>9.85</v>
       </c>
       <c r="H66" s="10">
-        <v>12.1</v>
+        <v>11.78</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="186.95" customHeight="1" x14ac:dyDescent="0.25">
